--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75D1A2-E35F-4A49-A09B-9277650E96E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07F4DE-F5E9-49B1-B04E-517C92D5315E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,68 @@
   </si>
   <si>
     <t>maxOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用逻辑id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：
+1：装备
+2：普通物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骑士80级武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具，很贵。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色工地手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐色工地手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呵呵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,8 +196,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -427,58 +492,63 @@
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -487,81 +557,199 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>10003</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10004</v>
-      </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07F4DE-F5E9-49B1-B04E-517C92D5315E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575DB74-1283-4D6D-AEDF-BB3B8DD4638F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,15 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复mp100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红色药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复hp100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,6 +145,22 @@
   </si>
   <si>
     <t>呵呵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用逻辑参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复mp50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复hp50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useLogicArgs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,29 +503,33 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -537,10 +549,13 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -548,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -560,18 +575,21 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -583,18 +601,21 @@
         <v>2</v>
       </c>
       <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -605,19 +626,19 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -628,19 +649,19 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -648,19 +669,19 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -668,19 +689,19 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30001</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -688,19 +709,19 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30002</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -708,19 +729,19 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30003</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -728,19 +749,19 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30004</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -748,7 +769,7 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1</v>
       </c>
     </row>

--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575DB74-1283-4D6D-AEDF-BB3B8DD4638F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7B1DB-42C2-48CD-873E-09E835DD91F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -600,9 +600,6 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -707,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -727,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -747,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -767,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>

--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7B1DB-42C2-48CD-873E-09E835DD91F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36551B0B-53B7-49D4-A5AD-78628895F5C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,8 +502,9 @@
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">

--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36551B0B-53B7-49D4-A5AD-78628895F5C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9834128-B0CC-49FC-8132-1E3DBB7CA5DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>useLogicArgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊蓝色药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒回复5mp，持续20秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,6 +609,9 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -610,10 +621,10 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -622,7 +633,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -630,22 +644,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -653,19 +664,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -673,13 +684,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10005</v>
+        <v>20001</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -693,33 +704,33 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -733,13 +744,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -753,21 +764,41 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>30003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>30004</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
     </row>

--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9834128-B0CC-49FC-8132-1E3DBB7CA5DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C00C62-A92B-47F9-92D4-558646397C24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每秒回复5mp，持续20秒</t>
+    <t>产生蓝buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,13 +500,13 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>

--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C00C62-A92B-47F9-92D4-558646397C24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E37479B-7FB1-40E5-AFBC-79E03F24D8FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>产生蓝buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于世界聊天，每次消耗一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,6 +810,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
+++ b/server/docs/PropsCfgExcel_com.wan37.config.entity.PropsCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E37479B-7FB1-40E5-AFBC-79E03F24D8FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88881BD4-4EDE-441B-9CD9-366179333DE6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>用于世界聊天，每次消耗一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩充包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于扩充背包格子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -830,6 +838,32 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
